--- a/output/tonns of good.xlsx
+++ b/output/tonns of good.xlsx
@@ -1004,7 +1004,7 @@
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="K3" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="L3" s="9">
         <f t="shared" si="1"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K4" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="2"/>
@@ -1160,7 +1160,9 @@
       <c r="J5" s="9">
         <v>375</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="51">
+        <v>950</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1193,7 +1195,9 @@
       <c r="J6" s="9">
         <v>750</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="51">
+        <v>1100</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1222,7 +1226,9 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="51">
+        <v>0</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1253,7 +1259,9 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="51">
+        <v>0</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1282,7 +1290,9 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="51">
+        <v>0</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1311,7 +1321,9 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="51">
+        <v>0</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1340,7 +1352,9 @@
       <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="51">
+        <v>0</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1373,7 +1387,9 @@
       <c r="J12" s="9">
         <v>1875</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="51">
+        <v>1000</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1402,7 +1418,9 @@
       <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="51">
+        <v>0</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1431,7 +1449,9 @@
       <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="51">
+        <v>0</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1460,7 +1480,9 @@
       <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="51">
+        <v>0</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1493,7 +1515,9 @@
       <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="51">
+        <v>0</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1524,7 +1548,9 @@
       <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="51">
+        <v>0</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1553,7 +1579,9 @@
       <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1582,7 +1610,9 @@
       <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1611,7 +1641,9 @@
       <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1640,7 +1672,9 @@
       <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1669,7 +1703,9 @@
       <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1698,7 +1734,9 @@
       <c r="J23" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1727,7 +1765,9 @@
       <c r="J24" s="9">
         <v>0</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -1756,7 +1796,9 @@
       <c r="J25" s="9">
         <v>0</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -1785,7 +1827,9 @@
       <c r="J26" s="15">
         <v>0</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -1827,7 +1871,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3564.8710999999998</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="3"/>
@@ -1882,7 +1926,7 @@
       </c>
       <c r="K28" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3546.1859999999997</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="4"/>
@@ -1937,7 +1981,7 @@
       </c>
       <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3546.1859999999997</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="5"/>
@@ -1983,7 +2027,9 @@
       <c r="J30" s="9">
         <v>397.5</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9">
+        <v>547.5</v>
+      </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2016,7 +2062,9 @@
       <c r="J31" s="9">
         <v>1157.5</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9">
+        <v>1174.375</v>
+      </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -2045,7 +2093,9 @@
       <c r="J32" s="9">
         <v>0</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -2076,7 +2126,9 @@
       <c r="J33" s="9">
         <v>458.125</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9">
+        <v>362.5</v>
+      </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2105,7 +2157,9 @@
       <c r="J34" s="9">
         <v>0</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2134,7 +2188,9 @@
       <c r="J35" s="9">
         <v>0</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2163,7 +2219,9 @@
       <c r="J36" s="9">
         <v>0</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2196,7 +2254,9 @@
       <c r="J37" s="9">
         <v>1230.625</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9">
+        <v>1441.8109999999999</v>
+      </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2225,7 +2285,9 @@
       <c r="J38" s="9">
         <v>507.5</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="9">
+        <v>20</v>
+      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2254,7 +2316,9 @@
       <c r="J39" s="9">
         <v>0</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2283,7 +2347,9 @@
       <c r="J40" s="9">
         <v>0</v>
       </c>
-      <c r="K40" s="9"/>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2316,7 +2382,9 @@
       <c r="J41" s="9">
         <v>0</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2346,7 +2414,9 @@
       <c r="J42" s="9">
         <v>0</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="9">
+        <v>18.685099999999998</v>
+      </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2375,7 +2445,9 @@
       <c r="J43" s="9">
         <v>0</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -2404,7 +2476,9 @@
       <c r="J44" s="9">
         <v>0</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2433,7 +2507,9 @@
       <c r="J45" s="9">
         <v>0</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2462,7 +2538,9 @@
       <c r="J46" s="9">
         <v>0</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2491,7 +2569,9 @@
       <c r="J47" s="9">
         <v>0</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2520,7 +2600,9 @@
       <c r="J48" s="9">
         <v>0</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2549,7 +2631,9 @@
       <c r="J49" s="9">
         <v>0</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -2578,7 +2662,9 @@
       <c r="J50" s="9">
         <v>0</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -2607,7 +2693,9 @@
       <c r="J51" s="9">
         <v>0</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -2652,23 +2740,23 @@
       </c>
       <c r="K52" s="5">
         <f t="shared" si="6"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="L52" s="5">
         <f t="shared" si="6"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="M52" s="5">
         <f t="shared" si="6"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="N52" s="5">
         <f t="shared" si="6"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="O52" s="5">
         <f t="shared" si="6"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -2710,23 +2798,23 @@
       </c>
       <c r="K53" s="9">
         <f t="shared" si="7"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="7"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="7"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="N53" s="9">
         <f t="shared" si="7"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="O53" s="9">
         <f t="shared" si="7"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -2768,23 +2856,23 @@
       </c>
       <c r="K54" s="9">
         <f t="shared" si="8"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="8"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="8"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="N54" s="9">
         <f t="shared" si="8"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
       <c r="O54" s="9">
         <f t="shared" si="8"/>
-        <v>5380.625</v>
+        <v>4884.4390000000003</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -2824,24 +2912,24 @@
         <v>906.25</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="9"/>
-        <v>906.25</v>
+        <f>J55+K5-K30</f>
+        <v>1308.75</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>1308.75</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>1308.75</v>
       </c>
       <c r="N55" s="9">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>1308.75</v>
       </c>
       <c r="O55" s="9">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>1308.75</v>
       </c>
       <c r="Q55" s="21"/>
     </row>
@@ -2882,24 +2970,24 @@
         <v>1981.875</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="9"/>
-        <v>1981.875</v>
+        <f>J56+K6-K31</f>
+        <v>1907.5</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="9"/>
-        <v>1981.875</v>
+        <v>1907.5</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="9"/>
-        <v>1981.875</v>
+        <v>1907.5</v>
       </c>
       <c r="N56" s="9">
         <f t="shared" si="9"/>
-        <v>1981.875</v>
+        <v>1907.5</v>
       </c>
       <c r="O56" s="9">
         <f t="shared" si="9"/>
-        <v>1981.875</v>
+        <v>1907.5</v>
       </c>
       <c r="Q56" s="21"/>
     </row>
@@ -2940,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="9"/>
+        <f>J57+K7-K32</f>
         <v>0</v>
       </c>
       <c r="L57" s="9">
@@ -2998,24 +3086,24 @@
         <v>487.5</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="9"/>
-        <v>487.5</v>
+        <f>J58+K8-K33</f>
+        <v>125</v>
       </c>
       <c r="L58" s="9">
         <f t="shared" si="9"/>
-        <v>487.5</v>
+        <v>125</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="9"/>
-        <v>487.5</v>
+        <v>125</v>
       </c>
       <c r="N58" s="9">
         <f t="shared" si="9"/>
-        <v>487.5</v>
+        <v>125</v>
       </c>
       <c r="O58" s="9">
         <f t="shared" si="9"/>
-        <v>487.5</v>
+        <v>125</v>
       </c>
       <c r="Q58" s="21"/>
     </row>
@@ -3056,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="9"/>
+        <f>J59+K9-K34</f>
         <v>0</v>
       </c>
       <c r="L59" s="9">
@@ -3114,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="9"/>
+        <f>J60+K10-K35</f>
         <v>0</v>
       </c>
       <c r="L60" s="9">
@@ -3172,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="9"/>
+        <f>J61+K11-K36</f>
         <v>0</v>
       </c>
       <c r="L61" s="9">
@@ -3230,24 +3318,24 @@
         <v>1936.25</v>
       </c>
       <c r="K62" s="9">
-        <f t="shared" si="9"/>
-        <v>1936.25</v>
+        <f>J62+K12-K37</f>
+        <v>1494.4390000000001</v>
       </c>
       <c r="L62" s="9">
         <f t="shared" si="9"/>
-        <v>1936.25</v>
+        <v>1494.4390000000001</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="9"/>
-        <v>1936.25</v>
+        <v>1494.4390000000001</v>
       </c>
       <c r="N62" s="9">
         <f t="shared" si="9"/>
-        <v>1936.25</v>
+        <v>1494.4390000000001</v>
       </c>
       <c r="O62" s="9">
         <f t="shared" si="9"/>
-        <v>1936.25</v>
+        <v>1494.4390000000001</v>
       </c>
       <c r="Q62" s="21"/>
     </row>
@@ -3288,24 +3376,24 @@
         <v>68.75</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="9"/>
-        <v>68.75</v>
+        <f>J63+K13-K38</f>
+        <v>48.75</v>
       </c>
       <c r="L63" s="9">
         <f t="shared" si="9"/>
-        <v>68.75</v>
+        <v>48.75</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="9"/>
-        <v>68.75</v>
+        <v>48.75</v>
       </c>
       <c r="N63" s="9">
         <f t="shared" si="9"/>
-        <v>68.75</v>
+        <v>48.75</v>
       </c>
       <c r="O63" s="9">
         <f t="shared" si="9"/>
-        <v>68.75</v>
+        <v>48.75</v>
       </c>
       <c r="Q63" s="21"/>
     </row>
@@ -3346,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="9"/>
+        <f>J64+K14-K39</f>
         <v>0</v>
       </c>
       <c r="L64" s="9">
@@ -3404,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="9"/>
+        <f>J65+K15-K40</f>
         <v>0</v>
       </c>
       <c r="L65" s="9">
@@ -3462,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="9"/>
+        <f>J66+K16-K41</f>
         <v>0</v>
       </c>
       <c r="L66" s="9">
@@ -3520,24 +3608,24 @@
         <v>296.54390000000001</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="9"/>
-        <v>296.54390000000001</v>
+        <f>J67+K17-K42</f>
+        <v>277.85880000000003</v>
       </c>
       <c r="L67" s="9">
         <f t="shared" si="9"/>
-        <v>296.54390000000001</v>
+        <v>277.85880000000003</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" si="9"/>
-        <v>296.54390000000001</v>
+        <v>277.85880000000003</v>
       </c>
       <c r="N67" s="9">
         <f t="shared" si="9"/>
-        <v>296.54390000000001</v>
+        <v>277.85880000000003</v>
       </c>
       <c r="O67" s="9">
         <f t="shared" si="9"/>
-        <v>296.54390000000001</v>
+        <v>277.85880000000003</v>
       </c>
       <c r="Q67" s="21"/>
     </row>
@@ -3578,7 +3666,7 @@
         <v>1.9999999999242802E-5</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="9"/>
+        <f>J68+K18-K43</f>
         <v>1.9999999999242802E-5</v>
       </c>
       <c r="L68" s="9">
@@ -3636,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" si="9"/>
+        <f>J69+K19-K44</f>
         <v>0</v>
       </c>
       <c r="L69" s="9">
@@ -3694,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <f t="shared" si="9"/>
+        <f>J70+K20-K45</f>
         <v>0</v>
       </c>
       <c r="L70" s="9">
@@ -3752,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="15"/>
+        <f>J71+K21-K46</f>
         <v>0</v>
       </c>
       <c r="L71" s="9">
@@ -3810,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="9">
-        <f t="shared" si="15"/>
+        <f>J72+K22-K47</f>
         <v>0</v>
       </c>
       <c r="L72" s="9">
@@ -3868,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="15"/>
+        <f>J73+K23-K48</f>
         <v>0</v>
       </c>
       <c r="L73" s="9">
@@ -3926,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="15"/>
+        <f>J74+K24-K49</f>
         <v>0</v>
       </c>
       <c r="L74" s="9">
@@ -3984,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="15"/>
+        <f>J75+K25-K50</f>
         <v>0</v>
       </c>
       <c r="L75" s="9">
@@ -4042,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" si="15"/>
+        <f>J76+K26-K51</f>
         <v>0</v>
       </c>
       <c r="L76" s="9">
@@ -4104,7 +4192,7 @@
       </c>
       <c r="K79" s="24">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="L79" s="24">
         <f t="shared" si="16"/>
@@ -4158,7 +4246,7 @@
       </c>
       <c r="K80" s="24">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3564.8710999999998</v>
       </c>
       <c r="L80" s="24">
         <f t="shared" si="17"/>
@@ -4212,23 +4300,23 @@
       </c>
       <c r="K81" s="24">
         <f t="shared" si="18"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="18"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="18"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="18"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="18"/>
-        <v>5677.1689200000001</v>
+        <v>5162.2978200000007</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
@@ -4493,7 +4581,7 @@
       </c>
       <c r="K2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12006546.9</v>
       </c>
       <c r="L2" s="37">
         <f t="shared" si="0"/>
@@ -4548,7 +4636,7 @@
       </c>
       <c r="K3" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11801774.59</v>
       </c>
       <c r="L3" s="41">
         <f t="shared" si="1"/>
@@ -4603,7 +4691,7 @@
       </c>
       <c r="K4" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11801774.59</v>
       </c>
       <c r="L4" s="41">
         <f t="shared" si="2"/>
@@ -4649,7 +4737,9 @@
       <c r="J5" s="41">
         <v>3374137.43</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="41">
+        <v>1326305.1399999999</v>
+      </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -4682,7 +4772,9 @@
       <c r="J6" s="41">
         <v>6957120.0199999996</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="41">
+        <v>4187289.5999999996</v>
+      </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
@@ -4713,7 +4805,9 @@
       <c r="J7" s="41">
         <v>0</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
@@ -4744,7 +4838,9 @@
       <c r="J8" s="41">
         <v>0</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -4775,7 +4871,9 @@
       <c r="J9" s="41">
         <v>0</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -4806,7 +4904,9 @@
       <c r="J10" s="41">
         <v>0</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -4837,7 +4937,9 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -4870,7 +4972,9 @@
       <c r="J12" s="41">
         <v>16457195.6</v>
       </c>
-      <c r="K12" s="41"/>
+      <c r="K12" s="41">
+        <v>6288179.8499999996</v>
+      </c>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -4901,7 +5005,9 @@
       <c r="J13" s="41">
         <v>0</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="41">
+        <v>0</v>
+      </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -4932,7 +5038,9 @@
       <c r="J14" s="41">
         <v>0</v>
       </c>
-      <c r="K14" s="41"/>
+      <c r="K14" s="41">
+        <v>0</v>
+      </c>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -4963,7 +5071,9 @@
       <c r="J15" s="41">
         <v>0</v>
       </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="41">
+        <v>0</v>
+      </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -4996,7 +5106,9 @@
       <c r="J16" s="41">
         <v>0</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="41">
+        <v>0</v>
+      </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -5029,7 +5141,9 @@
       <c r="J17" s="41">
         <v>0</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="41">
+        <v>0</v>
+      </c>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -5060,7 +5174,9 @@
       <c r="J18" s="41">
         <v>0</v>
       </c>
-      <c r="K18" s="41"/>
+      <c r="K18" s="41">
+        <v>0</v>
+      </c>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -5091,7 +5207,9 @@
       <c r="J19" s="41">
         <v>0</v>
       </c>
-      <c r="K19" s="41"/>
+      <c r="K19" s="41">
+        <v>0</v>
+      </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
@@ -5122,7 +5240,9 @@
       <c r="J20" s="41">
         <v>0</v>
       </c>
-      <c r="K20" s="41"/>
+      <c r="K20" s="41">
+        <v>0</v>
+      </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -5153,7 +5273,9 @@
       <c r="J21" s="41">
         <v>0</v>
       </c>
-      <c r="K21" s="41"/>
+      <c r="K21" s="41">
+        <v>0</v>
+      </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -5184,7 +5306,9 @@
       <c r="J22" s="41">
         <v>0</v>
       </c>
-      <c r="K22" s="41"/>
+      <c r="K22" s="41">
+        <v>0</v>
+      </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -5215,7 +5339,9 @@
       <c r="J23" s="41">
         <v>0</v>
       </c>
-      <c r="K23" s="41"/>
+      <c r="K23" s="41">
+        <v>0</v>
+      </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -5246,7 +5372,9 @@
       <c r="J24" s="41">
         <v>0</v>
       </c>
-      <c r="K24" s="41"/>
+      <c r="K24" s="41">
+        <v>0</v>
+      </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -5277,7 +5405,9 @@
       <c r="J25" s="41">
         <v>0</v>
       </c>
-      <c r="K25" s="41"/>
+      <c r="K25" s="41">
+        <v>0</v>
+      </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -5310,7 +5440,9 @@
       <c r="J26" s="41">
         <v>191110.7699999988</v>
       </c>
-      <c r="K26" s="41"/>
+      <c r="K26" s="41">
+        <v>204772.31</v>
+      </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
@@ -5352,7 +5484,7 @@
       </c>
       <c r="K27" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31373906.530000005</v>
       </c>
       <c r="L27" s="37">
         <f t="shared" si="3"/>
@@ -5407,7 +5539,7 @@
       </c>
       <c r="K28" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31136235.800000001</v>
       </c>
       <c r="L28" s="41">
         <f t="shared" si="4"/>
@@ -5462,7 +5594,7 @@
       </c>
       <c r="K29" s="41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31136235.800000001</v>
       </c>
       <c r="L29" s="41">
         <f t="shared" si="5"/>
@@ -5508,7 +5640,9 @@
       <c r="J30" s="41">
         <v>3473313.01</v>
       </c>
-      <c r="K30" s="41"/>
+      <c r="K30" s="41">
+        <v>4793985.57</v>
+      </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -5541,7 +5675,9 @@
       <c r="J31" s="41">
         <v>10221049.09</v>
       </c>
-      <c r="K31" s="41"/>
+      <c r="K31" s="41">
+        <v>10380182.24</v>
+      </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -5570,7 +5706,9 @@
       <c r="J32" s="41">
         <v>0</v>
       </c>
-      <c r="K32" s="41"/>
+      <c r="K32" s="41">
+        <v>0</v>
+      </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -5601,7 +5739,9 @@
       <c r="J33" s="41">
         <v>3939359.53</v>
       </c>
-      <c r="K33" s="41"/>
+      <c r="K33" s="41">
+        <v>3117092.26</v>
+      </c>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -5630,7 +5770,9 @@
       <c r="J34" s="41">
         <v>0</v>
       </c>
-      <c r="K34" s="41"/>
+      <c r="K34" s="41">
+        <v>0</v>
+      </c>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -5659,7 +5801,9 @@
       <c r="J35" s="41">
         <v>0</v>
       </c>
-      <c r="K35" s="41"/>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -5688,7 +5832,9 @@
       <c r="J36" s="41">
         <v>0</v>
       </c>
-      <c r="K36" s="41"/>
+      <c r="K36" s="41">
+        <v>0</v>
+      </c>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -5721,7 +5867,9 @@
       <c r="J37" s="41">
         <v>10738982.130000001</v>
       </c>
-      <c r="K37" s="41"/>
+      <c r="K37" s="41">
+        <v>12651311.35</v>
+      </c>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -5750,7 +5898,9 @@
       <c r="J38" s="41">
         <v>4914233.54</v>
       </c>
-      <c r="K38" s="41"/>
+      <c r="K38" s="41">
+        <v>193664.38</v>
+      </c>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -5779,7 +5929,9 @@
       <c r="J39" s="41">
         <v>0</v>
       </c>
-      <c r="K39" s="41"/>
+      <c r="K39" s="41">
+        <v>0</v>
+      </c>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -5808,7 +5960,9 @@
       <c r="J40" s="41">
         <v>0</v>
       </c>
-      <c r="K40" s="41"/>
+      <c r="K40" s="41">
+        <v>0</v>
+      </c>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -5841,7 +5995,9 @@
       <c r="J41" s="41">
         <v>0</v>
       </c>
-      <c r="K41" s="41"/>
+      <c r="K41" s="41">
+        <v>0</v>
+      </c>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -5870,7 +6026,9 @@
       <c r="J42" s="41">
         <v>0</v>
       </c>
-      <c r="K42" s="41"/>
+      <c r="K42" s="41">
+        <v>237670.73</v>
+      </c>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -5899,7 +6057,9 @@
       <c r="J43" s="41">
         <v>0</v>
       </c>
-      <c r="K43" s="41"/>
+      <c r="K43" s="41">
+        <v>0</v>
+      </c>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -5928,7 +6088,9 @@
       <c r="J44" s="41">
         <v>0</v>
       </c>
-      <c r="K44" s="41"/>
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
@@ -5957,7 +6119,9 @@
       <c r="J45" s="41">
         <v>0</v>
       </c>
-      <c r="K45" s="41"/>
+      <c r="K45" s="41">
+        <v>0</v>
+      </c>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
@@ -5986,7 +6150,9 @@
       <c r="J46" s="41">
         <v>0</v>
       </c>
-      <c r="K46" s="41"/>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
@@ -6015,7 +6181,9 @@
       <c r="J47" s="41">
         <v>0</v>
       </c>
-      <c r="K47" s="41"/>
+      <c r="K47" s="41">
+        <v>0</v>
+      </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
@@ -6044,7 +6212,9 @@
       <c r="J48" s="41">
         <v>0</v>
       </c>
-      <c r="K48" s="41"/>
+      <c r="K48" s="41">
+        <v>0</v>
+      </c>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
@@ -6073,7 +6243,9 @@
       <c r="J49" s="41">
         <v>0</v>
       </c>
-      <c r="K49" s="41"/>
+      <c r="K49" s="41">
+        <v>0</v>
+      </c>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
@@ -6102,7 +6274,9 @@
       <c r="J50" s="41">
         <v>0</v>
       </c>
-      <c r="K50" s="41"/>
+      <c r="K50" s="41">
+        <v>0</v>
+      </c>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
@@ -6134,7 +6308,9 @@
       <c r="J51" s="41">
         <v>191110.77000000328</v>
       </c>
-      <c r="K51" s="41"/>
+      <c r="K51" s="41">
+        <v>3.7252902984619141E-9</v>
+      </c>
       <c r="L51" s="41"/>
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
@@ -6179,23 +6355,23 @@
       </c>
       <c r="K52" s="37">
         <f t="shared" si="6"/>
-        <v>50868557.259999946</v>
+        <v>31501197.629999947</v>
       </c>
       <c r="L52" s="37">
         <f t="shared" si="6"/>
-        <v>50868557.259999946</v>
+        <v>31501197.629999947</v>
       </c>
       <c r="M52" s="37">
         <f t="shared" si="6"/>
-        <v>50868557.259999946</v>
+        <v>31501197.629999947</v>
       </c>
       <c r="N52" s="37">
         <f t="shared" si="6"/>
-        <v>50868557.259999946</v>
+        <v>31501197.629999947</v>
       </c>
       <c r="O52" s="37">
         <f t="shared" si="6"/>
-        <v>50868557.259999946</v>
+        <v>31501197.629999947</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6237,23 +6413,23 @@
       </c>
       <c r="K53" s="41">
         <f t="shared" si="7"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="L53" s="41">
         <f t="shared" si="7"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="M53" s="41">
         <f t="shared" si="7"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="N53" s="41">
         <f t="shared" si="7"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="O53" s="41">
         <f t="shared" si="7"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -6295,23 +6471,23 @@
       </c>
       <c r="K54" s="41">
         <f t="shared" si="8"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="L54" s="41">
         <f t="shared" si="8"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="M54" s="41">
         <f t="shared" si="8"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="N54" s="41">
         <f t="shared" si="8"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
       <c r="O54" s="41">
         <f t="shared" si="8"/>
-        <v>46709376.859999962</v>
+        <v>27374915.649999965</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -6351,24 +6527,24 @@
         <v>7945869.4999999832</v>
       </c>
       <c r="K55" s="41">
-        <f t="shared" si="9"/>
-        <v>7945869.4999999832</v>
+        <f>J55+K5-K30</f>
+        <v>4478189.0699999835</v>
       </c>
       <c r="L55" s="41">
         <f t="shared" si="9"/>
-        <v>7945869.4999999832</v>
+        <v>4478189.0699999835</v>
       </c>
       <c r="M55" s="41">
         <f t="shared" si="9"/>
-        <v>7945869.4999999832</v>
+        <v>4478189.0699999835</v>
       </c>
       <c r="N55" s="41">
         <f t="shared" si="9"/>
-        <v>7945869.4999999832</v>
+        <v>4478189.0699999835</v>
       </c>
       <c r="O55" s="45">
         <f t="shared" si="9"/>
-        <v>7945869.4999999832</v>
+        <v>4478189.0699999835</v>
       </c>
       <c r="Q55" s="46"/>
     </row>
@@ -6409,24 +6585,24 @@
         <v>17210433.46999998</v>
       </c>
       <c r="K56" s="41">
-        <f t="shared" si="9"/>
-        <v>17210433.46999998</v>
+        <f>J56+K6-K31</f>
+        <v>11017540.829999978</v>
       </c>
       <c r="L56" s="41">
         <f t="shared" si="9"/>
-        <v>17210433.46999998</v>
+        <v>11017540.829999978</v>
       </c>
       <c r="M56" s="41">
         <f t="shared" si="9"/>
-        <v>17210433.46999998</v>
+        <v>11017540.829999978</v>
       </c>
       <c r="N56" s="41">
         <f t="shared" si="9"/>
-        <v>17210433.46999998</v>
+        <v>11017540.829999978</v>
       </c>
       <c r="O56" s="45">
         <f t="shared" si="9"/>
-        <v>17210433.46999998</v>
+        <v>11017540.829999978</v>
       </c>
       <c r="Q56" s="46"/>
     </row>
@@ -6467,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="41">
-        <f t="shared" si="9"/>
+        <f>J57+K7-K32</f>
         <v>0</v>
       </c>
       <c r="L57" s="41">
@@ -6525,24 +6701,24 @@
         <v>4191951.5499999984</v>
       </c>
       <c r="K58" s="41">
-        <f t="shared" si="9"/>
-        <v>4191951.5499999984</v>
+        <f>J58+K8-K33</f>
+        <v>1074859.2899999986</v>
       </c>
       <c r="L58" s="41">
         <f t="shared" si="9"/>
-        <v>4191951.5499999984</v>
+        <v>1074859.2899999986</v>
       </c>
       <c r="M58" s="41">
         <f t="shared" si="9"/>
-        <v>4191951.5499999984</v>
+        <v>1074859.2899999986</v>
       </c>
       <c r="N58" s="41">
         <f t="shared" si="9"/>
-        <v>4191951.5499999984</v>
+        <v>1074859.2899999986</v>
       </c>
       <c r="O58" s="45">
         <f t="shared" si="9"/>
-        <v>4191951.5499999984</v>
+        <v>1074859.2899999986</v>
       </c>
       <c r="Q58" s="46"/>
     </row>
@@ -6583,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="41">
-        <f t="shared" si="9"/>
+        <f>J59+K9-K34</f>
         <v>0</v>
       </c>
       <c r="L59" s="41">
@@ -6641,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="41">
-        <f t="shared" si="9"/>
+        <f>J60+K10-K35</f>
         <v>0</v>
       </c>
       <c r="L60" s="41">
@@ -6699,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="41">
-        <f t="shared" si="9"/>
+        <f>J61+K11-K36</f>
         <v>0</v>
       </c>
       <c r="L61" s="41">
@@ -6757,24 +6933,24 @@
         <v>16695401.060000004</v>
       </c>
       <c r="K62" s="41">
-        <f t="shared" si="9"/>
-        <v>16695401.060000004</v>
+        <f>J62+K12-K37</f>
+        <v>10332269.560000004</v>
       </c>
       <c r="L62" s="41">
         <f t="shared" si="9"/>
-        <v>16695401.060000004</v>
+        <v>10332269.560000004</v>
       </c>
       <c r="M62" s="41">
         <f t="shared" si="9"/>
-        <v>16695401.060000004</v>
+        <v>10332269.560000004</v>
       </c>
       <c r="N62" s="41">
         <f t="shared" si="9"/>
-        <v>16695401.060000004</v>
+        <v>10332269.560000004</v>
       </c>
       <c r="O62" s="45">
         <f t="shared" si="9"/>
-        <v>16695401.060000004</v>
+        <v>10332269.560000004</v>
       </c>
       <c r="Q62" s="46"/>
     </row>
@@ -6815,24 +6991,24 @@
         <v>665721.28000000212</v>
       </c>
       <c r="K63" s="41">
-        <f t="shared" si="9"/>
-        <v>665721.28000000212</v>
+        <f>J63+K13-K38</f>
+        <v>472056.90000000212</v>
       </c>
       <c r="L63" s="41">
         <f t="shared" si="9"/>
-        <v>665721.28000000212</v>
+        <v>472056.90000000212</v>
       </c>
       <c r="M63" s="41">
         <f t="shared" si="9"/>
-        <v>665721.28000000212</v>
+        <v>472056.90000000212</v>
       </c>
       <c r="N63" s="41">
         <f t="shared" si="9"/>
-        <v>665721.28000000212</v>
+        <v>472056.90000000212</v>
       </c>
       <c r="O63" s="45">
         <f t="shared" si="9"/>
-        <v>665721.28000000212</v>
+        <v>472056.90000000212</v>
       </c>
       <c r="Q63" s="46"/>
     </row>
@@ -6873,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="41">
-        <f t="shared" si="9"/>
+        <f>J64+K14-K39</f>
         <v>0</v>
       </c>
       <c r="L64" s="41">
@@ -6931,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="41">
-        <f t="shared" si="9"/>
+        <f>J65+K15-K40</f>
         <v>0</v>
       </c>
       <c r="L65" s="41">
@@ -6989,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="41">
-        <f t="shared" si="9"/>
+        <f>J66+K16-K41</f>
         <v>0</v>
       </c>
       <c r="L66" s="41">
@@ -7047,24 +7223,24 @@
         <v>3771987.93</v>
       </c>
       <c r="K67" s="41">
-        <f t="shared" si="9"/>
-        <v>3771987.93</v>
+        <f>J67+K17-K42</f>
+        <v>3534317.2</v>
       </c>
       <c r="L67" s="41">
         <f t="shared" si="9"/>
-        <v>3771987.93</v>
+        <v>3534317.2</v>
       </c>
       <c r="M67" s="41">
         <f t="shared" si="9"/>
-        <v>3771987.93</v>
+        <v>3534317.2</v>
       </c>
       <c r="N67" s="41">
         <f t="shared" si="9"/>
-        <v>3771987.93</v>
+        <v>3534317.2</v>
       </c>
       <c r="O67" s="45">
         <f t="shared" si="9"/>
-        <v>3771987.93</v>
+        <v>3534317.2</v>
       </c>
       <c r="Q67" s="46"/>
     </row>
@@ -7105,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="41">
-        <f t="shared" si="9"/>
+        <f>J68+K18-K43</f>
         <v>0</v>
       </c>
       <c r="L68" s="41">
@@ -7163,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="41">
-        <f t="shared" si="9"/>
+        <f>J69+K19-K44</f>
         <v>0</v>
       </c>
       <c r="L69" s="41">
@@ -7221,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="41">
-        <f t="shared" si="9"/>
+        <f>J70+K20-K45</f>
         <v>0</v>
       </c>
       <c r="L70" s="41">
@@ -7279,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="41">
-        <f t="shared" si="15"/>
+        <f>J71+K21-K46</f>
         <v>0</v>
       </c>
       <c r="L71" s="41">
@@ -7337,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="41">
-        <f t="shared" si="15"/>
+        <f>J72+K22-K47</f>
         <v>0</v>
       </c>
       <c r="L72" s="41">
@@ -7395,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="41">
-        <f t="shared" si="15"/>
+        <f>J73+K23-K48</f>
         <v>0</v>
       </c>
       <c r="L73" s="41">
@@ -7453,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="41">
-        <f t="shared" si="15"/>
+        <f>J74+K24-K49</f>
         <v>0</v>
       </c>
       <c r="L74" s="41">
@@ -7511,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="41">
-        <f t="shared" si="15"/>
+        <f>J75+K25-K50</f>
         <v>0</v>
       </c>
       <c r="L75" s="41">
@@ -7569,24 +7745,24 @@
         <v>387192.46999998414</v>
       </c>
       <c r="K76" s="41">
-        <f t="shared" si="15"/>
-        <v>387192.46999998414</v>
+        <f>J76+K26-K51</f>
+        <v>591964.77999998047</v>
       </c>
       <c r="L76" s="41">
         <f t="shared" si="15"/>
-        <v>387192.46999998414</v>
+        <v>591964.77999998047</v>
       </c>
       <c r="M76" s="41">
         <f t="shared" si="15"/>
-        <v>387192.46999998414</v>
+        <v>591964.77999998047</v>
       </c>
       <c r="N76" s="41">
         <f t="shared" si="15"/>
-        <v>387192.46999998414</v>
+        <v>591964.77999998047</v>
       </c>
       <c r="O76" s="41">
         <f t="shared" si="15"/>
-        <v>387192.46999998414</v>
+        <v>591964.77999998047</v>
       </c>
       <c r="Q76" s="46"/>
     </row>
@@ -7627,7 +7803,7 @@
       </c>
       <c r="K79" s="43">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11801774.59</v>
       </c>
       <c r="L79" s="43">
         <f t="shared" si="16"/>
@@ -7680,7 +7856,7 @@
       </c>
       <c r="K80" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>31373906.530000001</v>
       </c>
       <c r="L80" s="43">
         <f t="shared" si="17"/>
@@ -7733,23 +7909,23 @@
       </c>
       <c r="K81" s="43">
         <f t="shared" si="18"/>
-        <v>50481364.789999962</v>
+        <v>30909232.849999968</v>
       </c>
       <c r="L81" s="43">
         <f t="shared" si="18"/>
-        <v>50481364.789999962</v>
+        <v>30909232.849999968</v>
       </c>
       <c r="M81" s="43">
         <f t="shared" si="18"/>
-        <v>50481364.789999962</v>
+        <v>30909232.849999968</v>
       </c>
       <c r="N81" s="43">
         <f t="shared" si="18"/>
-        <v>50481364.789999962</v>
+        <v>30909232.849999968</v>
       </c>
       <c r="O81" s="43">
         <f t="shared" si="18"/>
-        <v>50481364.789999962</v>
+        <v>30909232.849999968</v>
       </c>
     </row>
   </sheetData>
